--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4026,7 +4026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>121</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>266</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>271</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>277</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>283</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>290</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>296</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>319</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>532</v>
       </c>
@@ -26348,7 +26348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
         <v>692</v>
       </c>
@@ -26470,7 +26470,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" hidden="true">
+    <row r="194">
       <c r="A194" t="s" s="2">
         <v>702</v>
       </c>
@@ -33492,7 +33492,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="253" hidden="true">
+    <row r="253">
       <c r="A253" t="s" s="2">
         <v>850</v>
       </c>
@@ -33974,7 +33974,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" hidden="true">
+    <row r="257">
       <c r="A257" t="s" s="2">
         <v>855</v>
       </c>
@@ -35896,7 +35896,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="273" hidden="true">
+    <row r="273">
       <c r="A273" t="s" s="2">
         <v>934</v>
       </c>
@@ -36018,12 +36018,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP273">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dr-organization.xlsx
+++ b/main/ig/StructureDefinition-as-dr-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
